--- a/out/Frisksnit/Glostrup Hospital (GLO), Centralkøkken - Økologi statistik december 2024.xlsx
+++ b/out/Frisksnit/Glostrup Hospital (GLO), Centralkøkken - Økologi statistik december 2024.xlsx
@@ -820,7 +820,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% containsProduct,</t>
@@ -838,16 +838,16 @@
     <t>2% filler,27% containsSingleMass,27% containsProduct,13% containsProductNr,27% containsAmount,</t>
   </si>
   <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
-  </si>
-  <si>
-    <t>2% filler,27% containsSingleMass,13% containsProductNr,27% containsAmount,27% SingleMassHeader,</t>
+    <t>1% filler,19% containsTotalMass,19% containsSingleMass,19% containsProduct,19% SingleMassHeader,19% TotalMassHeader,</t>
+  </si>
+  <si>
+    <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
   </si>
   <si>
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
@@ -936,7 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -966,12 +966,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
+        <fgColor rgb="FFB6B281"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF947CC6"/>
+        <fgColor rgb="FF747D9B"/>
       </patternFill>
     </fill>
     <fill>
@@ -1008,7 +1008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1080,10 +1080,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1094,6 +1090,10 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1107,6 +1107,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1114,13 +1115,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4118,7 +4128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF02C8-CABF-44FE-969E-1FE5DAABCD83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F803B9-2D27-4DEF-AD6A-156B4ABC6887}">
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
@@ -4469,7 +4479,7 @@
       <c r="G16" s="26">
         <v>1122.66</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="42" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5011,7 +5021,7 @@
       <c r="B39" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="31" t="s">
         <v>88</v>
       </c>
       <c r="D39" s="23">
@@ -5293,13 +5303,13 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="28" t="s">
         <v>114</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="37" t="s">
         <v>116</v>
       </c>
       <c r="D51" s="23">
@@ -5317,13 +5327,13 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="28" t="s">
         <v>114</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="37" t="s">
         <v>118</v>
       </c>
       <c r="D52" s="23">
@@ -5344,19 +5354,19 @@
       <c r="A53" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="40">
+      <c r="B53" s="38">
         <v>3070</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="39" t="s">
         <v>120</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="42">
+      <c r="F53" s="40">
         <f>SUM(F7:F52)</f>
         <v>1011.75</v>
       </c>
-      <c r="G53" s="42">
+      <c r="G53" s="40">
         <f>SUM(G7:G52)</f>
         <v>58892.17</v>
       </c>
@@ -6310,7 +6320,7 @@
       <c r="B94" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="41" t="s">
         <v>205</v>
       </c>
       <c r="D94" s="23">
@@ -6334,7 +6344,7 @@
       <c r="B95" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="41" t="s">
         <v>207</v>
       </c>
       <c r="D95" s="23">
@@ -6670,7 +6680,7 @@
       <c r="B109" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C109" s="37" t="s">
+      <c r="C109" s="31" t="s">
         <v>239</v>
       </c>
       <c r="D109" s="23">
@@ -6694,7 +6704,7 @@
       <c r="B110" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C110" s="37" t="s">
+      <c r="C110" s="31" t="s">
         <v>241</v>
       </c>
       <c r="D110" s="23">
@@ -6736,13 +6746,13 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="28" t="s">
         <v>245</v>
       </c>
       <c r="B112" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C112" s="39" t="s">
+      <c r="C112" s="37" t="s">
         <v>247</v>
       </c>
       <c r="D112" s="23">
@@ -6763,10 +6773,10 @@
       <c r="A113" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B113" s="40">
+      <c r="B113" s="38">
         <v>3070</v>
       </c>
-      <c r="C113" s="41" t="s">
+      <c r="C113" s="39" t="s">
         <v>120</v>
       </c>
       <c r="D113" s="7"/>
@@ -6775,7 +6785,7 @@
         <f>SUM(F56:F112)</f>
         <v>1480</v>
       </c>
-      <c r="G113" s="42">
+      <c r="G113" s="40">
         <f>SUM(G56:G112)</f>
         <v>67927.20000000001</v>
       </c>
@@ -6791,11 +6801,11 @@
         <v>249</v>
       </c>
       <c r="E115" s="4"/>
-      <c r="F115" s="42">
+      <c r="F115" s="40">
         <f>+F53+F113</f>
         <v>2491.75</v>
       </c>
-      <c r="G115" s="42">
+      <c r="G115" s="40">
         <f>+G53+G113</f>
         <v>126819.37000000001</v>
       </c>
@@ -6830,7 +6840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8CABCF-E1AB-4104-B7B0-5CC2CC0D3D41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4722F1CE-D1DA-47E9-BA75-20049258249D}">
   <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
@@ -6881,16 +6891,16 @@
       <c r="B6" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="51" t="s">
         <v>269</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="55" t="s">
         <v>271</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -6904,16 +6914,16 @@
       <c r="B7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="54">
-        <v>4</v>
-      </c>
-      <c r="F7" s="55">
+      <c r="E7" s="56">
+        <v>4</v>
+      </c>
+      <c r="F7" s="58">
         <f>+D7*E7</f>
         <v>4</v>
       </c>
@@ -6928,16 +6938,16 @@
       <c r="B8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="54">
-        <v>4</v>
-      </c>
-      <c r="F8" s="55">
+      <c r="E8" s="56">
+        <v>4</v>
+      </c>
+      <c r="F8" s="58">
         <f ref="F8:F52" t="shared" si="0">+D8*E8</f>
         <v>20</v>
       </c>
@@ -6952,16 +6962,16 @@
       <c r="B9" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="54">
-        <v>1</v>
-      </c>
-      <c r="F9" s="55">
+      <c r="E9" s="56">
+        <v>1</v>
+      </c>
+      <c r="F9" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -6976,16 +6986,16 @@
       <c r="B10" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="56">
         <v>6</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="58">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -7000,16 +7010,16 @@
       <c r="B11" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="5">
         <v>5</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="56">
         <v>13</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="58">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -7024,16 +7034,16 @@
       <c r="B12" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="52" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="54">
-        <v>4</v>
-      </c>
-      <c r="F12" s="55">
+      <c r="E12" s="56">
+        <v>4</v>
+      </c>
+      <c r="F12" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7048,16 +7058,16 @@
       <c r="B13" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="52" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="56">
         <v>7</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="58">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -7072,16 +7082,16 @@
       <c r="B14" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="52" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="56">
         <v>3</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="58">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7096,16 +7106,16 @@
       <c r="B15" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="52" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="5">
         <v>5</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="56">
         <v>2</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="58">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7120,16 +7130,16 @@
       <c r="B16" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="52" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="56">
         <v>22</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="58">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -7144,16 +7154,16 @@
       <c r="B17" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="52" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="54">
-        <v>4</v>
-      </c>
-      <c r="F17" s="55">
+      <c r="E17" s="56">
+        <v>4</v>
+      </c>
+      <c r="F17" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7168,16 +7178,16 @@
       <c r="B18" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="52" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="56">
         <v>3</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="58">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7192,16 +7202,16 @@
       <c r="B19" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="52" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="54">
-        <v>4</v>
-      </c>
-      <c r="F19" s="55">
+      <c r="E19" s="56">
+        <v>4</v>
+      </c>
+      <c r="F19" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7216,16 +7226,16 @@
       <c r="B20" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="5">
         <v>5</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="56">
         <v>3</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="58">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7240,16 +7250,16 @@
       <c r="B21" s="49">
         <v>4</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="53" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="5">
         <v>0.75</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="56">
         <v>105</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="58">
         <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
@@ -7264,16 +7274,16 @@
       <c r="B22" s="49">
         <v>4</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="53" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="5">
         <v>0.75</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="56">
         <v>103</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="58">
         <f t="shared" si="0"/>
         <v>77.25</v>
       </c>
@@ -7288,16 +7298,16 @@
       <c r="B23" s="49">
         <v>4</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="53" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="5">
         <v>0.75</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="56">
         <v>109</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="58">
         <f t="shared" si="0"/>
         <v>81.75</v>
       </c>
@@ -7312,16 +7322,16 @@
       <c r="B24" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="52" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" s="54">
-        <v>4</v>
-      </c>
-      <c r="F24" s="55">
+      <c r="E24" s="56">
+        <v>4</v>
+      </c>
+      <c r="F24" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7336,16 +7346,16 @@
       <c r="B25" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="52" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="56">
         <v>8</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="58">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -7360,16 +7370,16 @@
       <c r="B26" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="52" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
-      <c r="E26" s="54">
-        <v>1</v>
-      </c>
-      <c r="F26" s="55">
+      <c r="E26" s="56">
+        <v>1</v>
+      </c>
+      <c r="F26" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7384,16 +7394,16 @@
       <c r="B27" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="52" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="56">
         <v>6</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="58">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -7408,16 +7418,16 @@
       <c r="B28" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="52" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="5">
         <v>5</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="56">
         <v>6</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F28" s="58">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -7432,16 +7442,16 @@
       <c r="B29" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="52" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="5">
         <v>3</v>
       </c>
-      <c r="E29" s="54">
-        <v>1</v>
-      </c>
-      <c r="F29" s="55">
+      <c r="E29" s="56">
+        <v>1</v>
+      </c>
+      <c r="F29" s="58">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7456,16 +7466,16 @@
       <c r="B30" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="52" t="s">
         <v>66</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="56">
         <v>3</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F30" s="58">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7480,16 +7490,16 @@
       <c r="B31" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="52" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="56">
         <v>2</v>
       </c>
-      <c r="F31" s="55">
+      <c r="F31" s="58">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7504,16 +7514,16 @@
       <c r="B32" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="52" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
-      <c r="E32" s="54">
+      <c r="E32" s="56">
         <v>2</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F32" s="58">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7528,16 +7538,16 @@
       <c r="B33" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="52" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="5">
         <v>5</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="56">
         <v>9</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="58">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -7552,16 +7562,16 @@
       <c r="B34" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="52" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="5">
         <v>5</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E34" s="56">
         <v>3</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="58">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7576,16 +7586,16 @@
       <c r="B35" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="52" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
       </c>
-      <c r="E35" s="54">
-        <v>1</v>
-      </c>
-      <c r="F35" s="55">
+      <c r="E35" s="56">
+        <v>1</v>
+      </c>
+      <c r="F35" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7600,16 +7610,16 @@
       <c r="B36" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="52" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
       </c>
-      <c r="E36" s="54">
+      <c r="E36" s="56">
         <v>3</v>
       </c>
-      <c r="F36" s="55">
+      <c r="F36" s="58">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7624,16 +7634,16 @@
       <c r="B37" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="52" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="5">
         <v>5</v>
       </c>
-      <c r="E37" s="54">
-        <v>4</v>
-      </c>
-      <c r="F37" s="55">
+      <c r="E37" s="56">
+        <v>4</v>
+      </c>
+      <c r="F37" s="58">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7648,16 +7658,16 @@
       <c r="B38" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="52" t="s">
         <v>85</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
       </c>
-      <c r="E38" s="54">
+      <c r="E38" s="56">
         <v>72</v>
       </c>
-      <c r="F38" s="55">
+      <c r="F38" s="58">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
@@ -7669,19 +7679,19 @@
       <c r="A39" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="52" t="s">
         <v>88</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="56">
         <v>2</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="58">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7693,19 +7703,19 @@
       <c r="A40" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="52" t="s">
         <v>91</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
       </c>
-      <c r="E40" s="8">
-        <v>5</v>
-      </c>
-      <c r="F40" s="8">
+      <c r="E40" s="56">
+        <v>5</v>
+      </c>
+      <c r="F40" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7717,19 +7727,19 @@
       <c r="A41" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="52" t="s">
         <v>93</v>
       </c>
       <c r="D41" s="5">
         <v>5</v>
       </c>
-      <c r="E41" s="8">
-        <v>1</v>
-      </c>
-      <c r="F41" s="8">
+      <c r="E41" s="56">
+        <v>1</v>
+      </c>
+      <c r="F41" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7741,19 +7751,19 @@
       <c r="A42" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="52" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="5">
         <v>5</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="56">
         <v>6</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="58">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -7765,19 +7775,19 @@
       <c r="A43" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="52" t="s">
         <v>97</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
       </c>
-      <c r="E43" s="8">
-        <v>4</v>
-      </c>
-      <c r="F43" s="8">
+      <c r="E43" s="56">
+        <v>4</v>
+      </c>
+      <c r="F43" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7789,19 +7799,19 @@
       <c r="A44" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="52" t="s">
         <v>99</v>
       </c>
       <c r="D44" s="5">
         <v>5</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="56">
         <v>7</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="58">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -7813,19 +7823,19 @@
       <c r="A45" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="52" t="s">
         <v>102</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="56">
         <v>6</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="58">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -7837,19 +7847,19 @@
       <c r="A46" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="52" t="s">
         <v>104</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="56">
         <v>38</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="58">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -7861,19 +7871,19 @@
       <c r="A47" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="52" t="s">
         <v>106</v>
       </c>
       <c r="D47" s="5">
         <v>1</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="56">
         <v>73</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="58">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
@@ -7885,19 +7895,19 @@
       <c r="A48" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="52" t="s">
         <v>109</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="56">
         <v>2</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="58">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7909,19 +7919,19 @@
       <c r="A49" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="52" t="s">
         <v>111</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="56">
         <v>8</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="58">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -7933,19 +7943,19 @@
       <c r="A50" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="52" t="s">
         <v>113</v>
       </c>
       <c r="D50" s="5">
         <v>5</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="56">
         <v>16</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="58">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -7957,19 +7967,19 @@
       <c r="A51" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="52" t="s">
         <v>116</v>
       </c>
       <c r="D51" s="5">
         <v>1</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="56">
         <v>6</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="58">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -7981,19 +7991,19 @@
       <c r="A52" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="52" t="s">
         <v>118</v>
       </c>
       <c r="D52" s="5">
         <v>5</v>
       </c>
-      <c r="E52" s="8">
-        <v>1</v>
-      </c>
-      <c r="F52" s="8">
+      <c r="E52" s="56">
+        <v>1</v>
+      </c>
+      <c r="F52" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8005,15 +8015,15 @@
       <c r="A53" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="50">
         <v>3070</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="54" t="s">
         <v>120</v>
       </c>
       <c r="D53" s="7"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="3">
+      <c r="E53" s="57"/>
+      <c r="F53" s="59">
         <f>SUM(F7:F52)</f>
         <v>1011.75</v>
       </c>
@@ -8036,16 +8046,16 @@
       <c r="B55" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="51" t="s">
         <v>269</v>
       </c>
       <c r="D55" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="53" t="s">
+      <c r="E55" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="F55" s="53" t="s">
+      <c r="F55" s="55" t="s">
         <v>271</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -8059,16 +8069,16 @@
       <c r="B56" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="52" t="s">
         <v>123</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
-      <c r="E56" s="54">
-        <v>4</v>
-      </c>
-      <c r="F56" s="55">
+      <c r="E56" s="56">
+        <v>4</v>
+      </c>
+      <c r="F56" s="58">
         <f>+D56*E56</f>
         <v>4</v>
       </c>
@@ -8083,16 +8093,16 @@
       <c r="B57" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="52" t="s">
         <v>125</v>
       </c>
       <c r="D57" s="5">
         <v>5</v>
       </c>
-      <c r="E57" s="54">
-        <v>4</v>
-      </c>
-      <c r="F57" s="55">
+      <c r="E57" s="56">
+        <v>4</v>
+      </c>
+      <c r="F57" s="58">
         <f ref="F57:F112" t="shared" si="1">+D57*E57</f>
         <v>20</v>
       </c>
@@ -8107,16 +8117,16 @@
       <c r="B58" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="52" t="s">
         <v>128</v>
       </c>
       <c r="D58" s="5">
         <v>1</v>
       </c>
-      <c r="E58" s="54">
+      <c r="E58" s="56">
         <v>31</v>
       </c>
-      <c r="F58" s="55">
+      <c r="F58" s="58">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -8131,16 +8141,16 @@
       <c r="B59" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="52" t="s">
         <v>130</v>
       </c>
       <c r="D59" s="5">
         <v>3</v>
       </c>
-      <c r="E59" s="54">
-        <v>1</v>
-      </c>
-      <c r="F59" s="55">
+      <c r="E59" s="56">
+        <v>1</v>
+      </c>
+      <c r="F59" s="58">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8155,16 +8165,16 @@
       <c r="B60" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="52" t="s">
         <v>132</v>
       </c>
       <c r="D60" s="5">
         <v>5</v>
       </c>
-      <c r="E60" s="54">
+      <c r="E60" s="56">
         <v>6</v>
       </c>
-      <c r="F60" s="55">
+      <c r="F60" s="58">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -8179,16 +8189,16 @@
       <c r="B61" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="52" t="s">
         <v>135</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
       </c>
-      <c r="E61" s="54">
+      <c r="E61" s="56">
         <v>37</v>
       </c>
-      <c r="F61" s="55">
+      <c r="F61" s="58">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
@@ -8203,16 +8213,16 @@
       <c r="B62" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="52" t="s">
         <v>137</v>
       </c>
       <c r="D62" s="5">
         <v>3</v>
       </c>
-      <c r="E62" s="54">
-        <v>5</v>
-      </c>
-      <c r="F62" s="55">
+      <c r="E62" s="56">
+        <v>5</v>
+      </c>
+      <c r="F62" s="58">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -8227,16 +8237,16 @@
       <c r="B63" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="51" t="s">
+      <c r="C63" s="52" t="s">
         <v>139</v>
       </c>
       <c r="D63" s="5">
         <v>5</v>
       </c>
-      <c r="E63" s="54">
+      <c r="E63" s="56">
         <v>33</v>
       </c>
-      <c r="F63" s="55">
+      <c r="F63" s="58">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
@@ -8251,16 +8261,16 @@
       <c r="B64" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C64" s="52" t="s">
         <v>142</v>
       </c>
       <c r="D64" s="5">
         <v>1</v>
       </c>
-      <c r="E64" s="54">
+      <c r="E64" s="56">
         <v>24</v>
       </c>
-      <c r="F64" s="55">
+      <c r="F64" s="58">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -8275,16 +8285,16 @@
       <c r="B65" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="52" t="s">
         <v>144</v>
       </c>
       <c r="D65" s="5">
         <v>1</v>
       </c>
-      <c r="E65" s="54">
+      <c r="E65" s="56">
         <v>17</v>
       </c>
-      <c r="F65" s="55">
+      <c r="F65" s="58">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -8299,16 +8309,16 @@
       <c r="B66" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="52" t="s">
         <v>146</v>
       </c>
       <c r="D66" s="5">
         <v>5</v>
       </c>
-      <c r="E66" s="54">
+      <c r="E66" s="56">
         <v>26</v>
       </c>
-      <c r="F66" s="55">
+      <c r="F66" s="58">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
@@ -8323,16 +8333,16 @@
       <c r="B67" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="52" t="s">
         <v>148</v>
       </c>
       <c r="D67" s="5">
         <v>1</v>
       </c>
-      <c r="E67" s="54">
+      <c r="E67" s="56">
         <v>7</v>
       </c>
-      <c r="F67" s="55">
+      <c r="F67" s="58">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -8347,16 +8357,16 @@
       <c r="B68" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="52" t="s">
         <v>150</v>
       </c>
       <c r="D68" s="5">
         <v>5</v>
       </c>
-      <c r="E68" s="54">
+      <c r="E68" s="56">
         <v>11</v>
       </c>
-      <c r="F68" s="55">
+      <c r="F68" s="58">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -8371,16 +8381,16 @@
       <c r="B69" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="52" t="s">
         <v>152</v>
       </c>
       <c r="D69" s="5">
         <v>3</v>
       </c>
-      <c r="E69" s="54">
-        <v>1</v>
-      </c>
-      <c r="F69" s="55">
+      <c r="E69" s="56">
+        <v>1</v>
+      </c>
+      <c r="F69" s="58">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8395,16 +8405,16 @@
       <c r="B70" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="52" t="s">
         <v>154</v>
       </c>
       <c r="D70" s="5">
         <v>5</v>
       </c>
-      <c r="E70" s="54">
-        <v>1</v>
-      </c>
-      <c r="F70" s="55">
+      <c r="E70" s="56">
+        <v>1</v>
+      </c>
+      <c r="F70" s="58">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -8419,16 +8429,16 @@
       <c r="B71" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="52" t="s">
         <v>156</v>
       </c>
       <c r="D71" s="5">
         <v>1</v>
       </c>
-      <c r="E71" s="54">
-        <v>1</v>
-      </c>
-      <c r="F71" s="55">
+      <c r="E71" s="56">
+        <v>1</v>
+      </c>
+      <c r="F71" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8443,16 +8453,16 @@
       <c r="B72" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="52" t="s">
         <v>158</v>
       </c>
       <c r="D72" s="5">
         <v>5</v>
       </c>
-      <c r="E72" s="54">
+      <c r="E72" s="56">
         <v>11</v>
       </c>
-      <c r="F72" s="55">
+      <c r="F72" s="58">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -8467,16 +8477,16 @@
       <c r="B73" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="52" t="s">
         <v>161</v>
       </c>
       <c r="D73" s="5">
         <v>1</v>
       </c>
-      <c r="E73" s="54">
+      <c r="E73" s="56">
         <v>2</v>
       </c>
-      <c r="F73" s="55">
+      <c r="F73" s="58">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -8491,16 +8501,16 @@
       <c r="B74" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="52" t="s">
         <v>163</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
       </c>
-      <c r="E74" s="54">
+      <c r="E74" s="56">
         <v>9</v>
       </c>
-      <c r="F74" s="55">
+      <c r="F74" s="58">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -8515,16 +8525,16 @@
       <c r="B75" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="52" t="s">
         <v>165</v>
       </c>
       <c r="D75" s="5">
         <v>5</v>
       </c>
-      <c r="E75" s="54">
+      <c r="E75" s="56">
         <v>13</v>
       </c>
-      <c r="F75" s="55">
+      <c r="F75" s="58">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -8539,16 +8549,16 @@
       <c r="B76" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="52" t="s">
         <v>168</v>
       </c>
       <c r="D76" s="5">
         <v>1</v>
       </c>
-      <c r="E76" s="54">
+      <c r="E76" s="56">
         <v>3</v>
       </c>
-      <c r="F76" s="55">
+      <c r="F76" s="58">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8563,16 +8573,16 @@
       <c r="B77" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="51" t="s">
+      <c r="C77" s="52" t="s">
         <v>170</v>
       </c>
       <c r="D77" s="5">
         <v>1</v>
       </c>
-      <c r="E77" s="54">
-        <v>4</v>
-      </c>
-      <c r="F77" s="55">
+      <c r="E77" s="56">
+        <v>4</v>
+      </c>
+      <c r="F77" s="58">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -8587,16 +8597,16 @@
       <c r="B78" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="52" t="s">
         <v>172</v>
       </c>
       <c r="D78" s="5">
         <v>5</v>
       </c>
-      <c r="E78" s="54">
-        <v>5</v>
-      </c>
-      <c r="F78" s="55">
+      <c r="E78" s="56">
+        <v>5</v>
+      </c>
+      <c r="F78" s="58">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -8611,16 +8621,16 @@
       <c r="B79" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="C79" s="51" t="s">
+      <c r="C79" s="52" t="s">
         <v>174</v>
       </c>
       <c r="D79" s="5">
         <v>5</v>
       </c>
-      <c r="E79" s="54">
+      <c r="E79" s="56">
         <v>6</v>
       </c>
-      <c r="F79" s="55">
+      <c r="F79" s="58">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -8635,16 +8645,16 @@
       <c r="B80" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="C80" s="52" t="s">
         <v>177</v>
       </c>
       <c r="D80" s="5">
         <v>1</v>
       </c>
-      <c r="E80" s="54">
+      <c r="E80" s="56">
         <v>9</v>
       </c>
-      <c r="F80" s="55">
+      <c r="F80" s="58">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -8659,16 +8669,16 @@
       <c r="B81" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="C81" s="52" t="s">
         <v>179</v>
       </c>
       <c r="D81" s="5">
         <v>3</v>
       </c>
-      <c r="E81" s="54">
-        <v>4</v>
-      </c>
-      <c r="F81" s="55">
+      <c r="E81" s="56">
+        <v>4</v>
+      </c>
+      <c r="F81" s="58">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -8683,16 +8693,16 @@
       <c r="B82" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="C82" s="51" t="s">
+      <c r="C82" s="52" t="s">
         <v>181</v>
       </c>
       <c r="D82" s="5">
         <v>5</v>
       </c>
-      <c r="E82" s="54">
+      <c r="E82" s="56">
         <v>2</v>
       </c>
-      <c r="F82" s="55">
+      <c r="F82" s="58">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -8707,16 +8717,16 @@
       <c r="B83" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="52" t="s">
         <v>183</v>
       </c>
       <c r="D83" s="5">
         <v>1</v>
       </c>
-      <c r="E83" s="54">
+      <c r="E83" s="56">
         <v>26</v>
       </c>
-      <c r="F83" s="55">
+      <c r="F83" s="58">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -8731,16 +8741,16 @@
       <c r="B84" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="52" t="s">
         <v>185</v>
       </c>
       <c r="D84" s="5">
         <v>3</v>
       </c>
-      <c r="E84" s="54">
-        <v>1</v>
-      </c>
-      <c r="F84" s="55">
+      <c r="E84" s="56">
+        <v>1</v>
+      </c>
+      <c r="F84" s="58">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8755,16 +8765,16 @@
       <c r="B85" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="C85" s="52" t="s">
         <v>187</v>
       </c>
       <c r="D85" s="5">
         <v>1</v>
       </c>
-      <c r="E85" s="54">
-        <v>4</v>
-      </c>
-      <c r="F85" s="55">
+      <c r="E85" s="56">
+        <v>4</v>
+      </c>
+      <c r="F85" s="58">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -8779,16 +8789,16 @@
       <c r="B86" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="52" t="s">
         <v>189</v>
       </c>
       <c r="D86" s="5">
         <v>3</v>
       </c>
-      <c r="E86" s="54">
-        <v>1</v>
-      </c>
-      <c r="F86" s="55">
+      <c r="E86" s="56">
+        <v>1</v>
+      </c>
+      <c r="F86" s="58">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8803,16 +8813,16 @@
       <c r="B87" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="C87" s="51" t="s">
+      <c r="C87" s="52" t="s">
         <v>191</v>
       </c>
       <c r="D87" s="5">
         <v>3</v>
       </c>
-      <c r="E87" s="54">
+      <c r="E87" s="56">
         <v>2</v>
       </c>
-      <c r="F87" s="55">
+      <c r="F87" s="58">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -8827,16 +8837,16 @@
       <c r="B88" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="C88" s="52" t="s">
         <v>193</v>
       </c>
       <c r="D88" s="5">
         <v>5</v>
       </c>
-      <c r="E88" s="54">
+      <c r="E88" s="56">
         <v>13</v>
       </c>
-      <c r="F88" s="55">
+      <c r="F88" s="58">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -8851,16 +8861,16 @@
       <c r="B89" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="C89" s="52" t="s">
         <v>195</v>
       </c>
       <c r="D89" s="5">
         <v>1</v>
       </c>
-      <c r="E89" s="54">
+      <c r="E89" s="56">
         <v>2</v>
       </c>
-      <c r="F89" s="55">
+      <c r="F89" s="58">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -8875,16 +8885,16 @@
       <c r="B90" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="52" t="s">
         <v>197</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
       </c>
-      <c r="E90" s="54">
+      <c r="E90" s="56">
         <v>13</v>
       </c>
-      <c r="F90" s="55">
+      <c r="F90" s="58">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -8899,16 +8909,16 @@
       <c r="B91" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="C91" s="52" t="s">
         <v>199</v>
       </c>
       <c r="D91" s="5">
         <v>5</v>
       </c>
-      <c r="E91" s="54">
-        <v>5</v>
-      </c>
-      <c r="F91" s="55">
+      <c r="E91" s="56">
+        <v>5</v>
+      </c>
+      <c r="F91" s="58">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -8923,16 +8933,16 @@
       <c r="B92" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="C92" s="51" t="s">
+      <c r="C92" s="52" t="s">
         <v>201</v>
       </c>
       <c r="D92" s="5">
         <v>1</v>
       </c>
-      <c r="E92" s="54">
+      <c r="E92" s="56">
         <v>12</v>
       </c>
-      <c r="F92" s="55">
+      <c r="F92" s="58">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -8947,16 +8957,16 @@
       <c r="B93" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C93" s="51" t="s">
+      <c r="C93" s="52" t="s">
         <v>203</v>
       </c>
       <c r="D93" s="5">
         <v>5</v>
       </c>
-      <c r="E93" s="54">
+      <c r="E93" s="56">
         <v>27</v>
       </c>
-      <c r="F93" s="55">
+      <c r="F93" s="58">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
@@ -8971,16 +8981,16 @@
       <c r="B94" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="C94" s="51" t="s">
+      <c r="C94" s="52" t="s">
         <v>205</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
       </c>
-      <c r="E94" s="54">
+      <c r="E94" s="56">
         <v>3</v>
       </c>
-      <c r="F94" s="55">
+      <c r="F94" s="58">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8995,16 +9005,16 @@
       <c r="B95" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="52" t="s">
         <v>207</v>
       </c>
       <c r="D95" s="5">
         <v>5</v>
       </c>
-      <c r="E95" s="54">
+      <c r="E95" s="56">
         <v>19</v>
       </c>
-      <c r="F95" s="55">
+      <c r="F95" s="58">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -9019,16 +9029,16 @@
       <c r="B96" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="C96" s="51" t="s">
+      <c r="C96" s="52" t="s">
         <v>209</v>
       </c>
       <c r="D96" s="5">
         <v>1</v>
       </c>
-      <c r="E96" s="54">
+      <c r="E96" s="56">
         <v>2</v>
       </c>
-      <c r="F96" s="55">
+      <c r="F96" s="58">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -9043,16 +9053,16 @@
       <c r="B97" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="C97" s="51" t="s">
+      <c r="C97" s="52" t="s">
         <v>211</v>
       </c>
       <c r="D97" s="5">
         <v>5</v>
       </c>
-      <c r="E97" s="54">
+      <c r="E97" s="56">
         <v>23</v>
       </c>
-      <c r="F97" s="55">
+      <c r="F97" s="58">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
@@ -9067,16 +9077,16 @@
       <c r="B98" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="C98" s="52" t="s">
         <v>214</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
       </c>
-      <c r="E98" s="54">
-        <v>4</v>
-      </c>
-      <c r="F98" s="55">
+      <c r="E98" s="56">
+        <v>4</v>
+      </c>
+      <c r="F98" s="58">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -9091,16 +9101,16 @@
       <c r="B99" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="C99" s="51" t="s">
+      <c r="C99" s="52" t="s">
         <v>216</v>
       </c>
       <c r="D99" s="5">
         <v>3</v>
       </c>
-      <c r="E99" s="54">
-        <v>1</v>
-      </c>
-      <c r="F99" s="55">
+      <c r="E99" s="56">
+        <v>1</v>
+      </c>
+      <c r="F99" s="58">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -9115,16 +9125,16 @@
       <c r="B100" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="C100" s="51" t="s">
+      <c r="C100" s="52" t="s">
         <v>218</v>
       </c>
       <c r="D100" s="5">
         <v>5</v>
       </c>
-      <c r="E100" s="54">
+      <c r="E100" s="56">
         <v>8</v>
       </c>
-      <c r="F100" s="55">
+      <c r="F100" s="58">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -9139,16 +9149,16 @@
       <c r="B101" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="C101" s="51" t="s">
+      <c r="C101" s="52" t="s">
         <v>220</v>
       </c>
       <c r="D101" s="5">
         <v>1</v>
       </c>
-      <c r="E101" s="54">
+      <c r="E101" s="56">
         <v>2</v>
       </c>
-      <c r="F101" s="55">
+      <c r="F101" s="58">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -9163,16 +9173,16 @@
       <c r="B102" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="C102" s="51" t="s">
+      <c r="C102" s="52" t="s">
         <v>222</v>
       </c>
       <c r="D102" s="5">
         <v>5</v>
       </c>
-      <c r="E102" s="54">
-        <v>4</v>
-      </c>
-      <c r="F102" s="55">
+      <c r="E102" s="56">
+        <v>4</v>
+      </c>
+      <c r="F102" s="58">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -9187,16 +9197,16 @@
       <c r="B103" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="C103" s="51" t="s">
+      <c r="C103" s="52" t="s">
         <v>224</v>
       </c>
       <c r="D103" s="5">
         <v>1</v>
       </c>
-      <c r="E103" s="54">
-        <v>4</v>
-      </c>
-      <c r="F103" s="55">
+      <c r="E103" s="56">
+        <v>4</v>
+      </c>
+      <c r="F103" s="58">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -9211,16 +9221,16 @@
       <c r="B104" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="C104" s="51" t="s">
+      <c r="C104" s="52" t="s">
         <v>226</v>
       </c>
       <c r="D104" s="5">
         <v>5</v>
       </c>
-      <c r="E104" s="54">
-        <v>1</v>
-      </c>
-      <c r="F104" s="55">
+      <c r="E104" s="56">
+        <v>1</v>
+      </c>
+      <c r="F104" s="58">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -9235,16 +9245,16 @@
       <c r="B105" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="C105" s="51" t="s">
+      <c r="C105" s="52" t="s">
         <v>229</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
       </c>
-      <c r="E105" s="54">
-        <v>4</v>
-      </c>
-      <c r="F105" s="55">
+      <c r="E105" s="56">
+        <v>4</v>
+      </c>
+      <c r="F105" s="58">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -9259,16 +9269,16 @@
       <c r="B106" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="C106" s="51" t="s">
+      <c r="C106" s="52" t="s">
         <v>231</v>
       </c>
       <c r="D106" s="5">
         <v>5</v>
       </c>
-      <c r="E106" s="54">
-        <v>1</v>
-      </c>
-      <c r="F106" s="55">
+      <c r="E106" s="56">
+        <v>1</v>
+      </c>
+      <c r="F106" s="58">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -9283,16 +9293,16 @@
       <c r="B107" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="C107" s="51" t="s">
+      <c r="C107" s="52" t="s">
         <v>234</v>
       </c>
       <c r="D107" s="5">
         <v>1</v>
       </c>
-      <c r="E107" s="54">
+      <c r="E107" s="56">
         <v>6</v>
       </c>
-      <c r="F107" s="55">
+      <c r="F107" s="58">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -9304,19 +9314,19 @@
       <c r="A108" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="52" t="s">
         <v>237</v>
       </c>
       <c r="D108" s="5">
         <v>5</v>
       </c>
-      <c r="E108" s="8">
-        <v>4</v>
-      </c>
-      <c r="F108" s="8">
+      <c r="E108" s="56">
+        <v>4</v>
+      </c>
+      <c r="F108" s="58">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -9328,19 +9338,19 @@
       <c r="A109" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="52" t="s">
         <v>239</v>
       </c>
       <c r="D109" s="5">
         <v>1</v>
       </c>
-      <c r="E109" s="8">
-        <v>1</v>
-      </c>
-      <c r="F109" s="8">
+      <c r="E109" s="56">
+        <v>1</v>
+      </c>
+      <c r="F109" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -9352,19 +9362,19 @@
       <c r="A110" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="52" t="s">
         <v>241</v>
       </c>
       <c r="D110" s="5">
         <v>5</v>
       </c>
-      <c r="E110" s="8">
-        <v>5</v>
-      </c>
-      <c r="F110" s="8">
+      <c r="E110" s="56">
+        <v>5</v>
+      </c>
+      <c r="F110" s="58">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -9376,19 +9386,19 @@
       <c r="A111" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="52" t="s">
         <v>244</v>
       </c>
       <c r="D111" s="5">
         <v>1</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E111" s="56">
         <v>60</v>
       </c>
-      <c r="F111" s="8">
+      <c r="F111" s="58">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -9400,19 +9410,19 @@
       <c r="A112" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="52" t="s">
         <v>247</v>
       </c>
       <c r="D112" s="5">
         <v>1</v>
       </c>
-      <c r="E112" s="8">
-        <v>1</v>
-      </c>
-      <c r="F112" s="8">
+      <c r="E112" s="56">
+        <v>1</v>
+      </c>
+      <c r="F112" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -9424,15 +9434,15 @@
       <c r="A113" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="50">
         <v>3070</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="54" t="s">
         <v>120</v>
       </c>
       <c r="D113" s="7"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="3">
+      <c r="E113" s="57"/>
+      <c r="F113" s="59">
         <f>SUM(F56:F112)</f>
         <v>1480</v>
       </c>
